--- a/gitCheetSheet.xlsx
+++ b/gitCheetSheet.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\PlayGround\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801B4A19-2FA0-4ABC-ABC2-AE734F297A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SourceTree" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +24,58 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>・ローカルリポジトリを開く</t>
+    <rPh sb="11" eb="12">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・リモートリポジトリを開く</t>
+    <rPh sb="11" eb="12">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・リポジトリをまとめて削除する</t>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="2"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +117,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>163377</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>143511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E41CD836-D244-A9A5-5D0F-2C452A50D703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="714375"/>
+          <a:ext cx="3592377" cy="1572261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>163377</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>143511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027491FE-198B-2EA9-7CF3-51FD69AE3E67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="3333750"/>
+          <a:ext cx="3592377" cy="1572261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>11158</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3B4DA7-43B4-A248-80BE-D1F4F0CFEE8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="5972175"/>
+          <a:ext cx="4040233" cy="1486501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>40426</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>211079</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB640AFA-DEB0-08AF-6E51-A4FE8D1B178D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="8096250"/>
+          <a:ext cx="5755426" cy="3782954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +562,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="3.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>